--- a/GameAwards2020/Assets/GameMain/DataTables/Entity.xlsx
+++ b/GameAwards2020/Assets/GameMain/DataTables/Entity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2020\GameAwards2020\GameAwards2020\Assets\GameMain\DataTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D04A783-2A27-4D15-AB48-4342F26D48F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D06981-6710-4CCE-A194-22CCE4B0FEF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="525" yWindow="2445" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11820" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>#</t>
   </si>
@@ -35,27 +35,23 @@
   </si>
   <si>
     <t>Player</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>玩家</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>Terrain</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SoundItem</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>声音道具</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>AssetName</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -160,19 +156,57 @@
       </rPr>
       <t>地</t>
     </r>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Camera</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CameraRig</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>PickupSound</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>StartPoint</t>
+  </si>
+  <si>
+    <t>StartPoint</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Exit</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Sun</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Light</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -228,11 +262,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -542,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -555,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -570,7 +607,7 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -592,13 +629,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -621,7 +658,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
@@ -634,18 +671,59 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C8" s="1"/>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/GameAwards2020/Assets/GameMain/DataTables/Entity.xlsx
+++ b/GameAwards2020/Assets/GameMain/DataTables/Entity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2020\GameAwards2020\GameAwards2020\Assets\GameMain\DataTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D06981-6710-4CCE-A194-22CCE4B0FEF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E595CE8-C5E3-4882-8276-E7299A4403EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11820" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>#</t>
   </si>
@@ -35,23 +35,23 @@
   </si>
   <si>
     <t>Player</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>玩家</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Terrain</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>声音道具</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>AssetName</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -156,50 +156,68 @@
       </rPr>
       <t>地</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Camera</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>CameraRig</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>PickupSound</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>StartPoint</t>
   </si>
   <si>
     <t>StartPoint</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Exit</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Sun</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Light</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>EndPoint</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>EndPoin</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>SoundItem</t>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -262,11 +280,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -582,7 +606,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -673,8 +697,8 @@
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>16</v>
+      <c r="D7" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -694,21 +718,21 @@
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10" s="1">
         <v>6</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>19</v>
+      <c r="C10" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -716,14 +740,14 @@
         <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
